--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_AnhTruc_270525.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/02.TraBH/TBH_AnhTruc_270525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang5\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50213739-1D09-4DC9-B1E7-9FAF47EE2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15E22E-B5C7-4786-BC89-E376EAC3E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>007785070687630</t>
+  </si>
+  <si>
+    <t>VNSH01</t>
+  </si>
+  <si>
+    <t>Lỗi cổng kết nối Camera</t>
+  </si>
+  <si>
+    <t>Xử lý lại cổng kết nối camera</t>
+  </si>
+  <si>
+    <t>WM21051100S0957 / 00BD000C5A</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +275,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF081B3A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -422,7 +440,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -495,6 +513,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,55 +585,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -930,10 +951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -945,7 +966,7 @@
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
@@ -953,69 +974,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="42" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
@@ -1029,12 +1050,12 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="26"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -1042,12 +1063,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -1055,12 +1076,12 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="26"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1068,12 +1089,12 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -1122,181 +1143,194 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="30">
         <v>1</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="34">
         <v>862205051224659</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="50" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="30">
         <v>2</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="34">
         <v>862205051171835</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="50" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="49"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="30">
         <v>3</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="50" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="49"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="30">
         <v>4</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="34">
         <v>202410050835105</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="50" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="30">
         <v>5</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="31"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="32" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="35" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
@@ -1321,68 +1355,79 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="34" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-    </row>
-    <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+    </row>
+    <row r="68" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>